--- a/Code/Results/Cases/Case_5_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.464540978907053</v>
+        <v>1.545629258784658</v>
       </c>
       <c r="C2">
-        <v>0.1662551232977734</v>
+        <v>0.07717628820944356</v>
       </c>
       <c r="D2">
-        <v>0.01225560760645905</v>
+        <v>0.01815585547026544</v>
       </c>
       <c r="E2">
-        <v>0.02627696900190024</v>
+        <v>0.06961748551167801</v>
       </c>
       <c r="F2">
-        <v>1.963025513618618</v>
+        <v>3.570975794395338</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.164108663758014</v>
+        <v>2.218182416072281</v>
       </c>
       <c r="J2">
-        <v>0.05929236221206224</v>
+        <v>0.1477815485480001</v>
       </c>
       <c r="K2">
-        <v>1.480861749650217</v>
+        <v>1.352588289994941</v>
       </c>
       <c r="L2">
-        <v>0.2412663450114394</v>
+        <v>0.3814899393340312</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.837003220101849</v>
+        <v>3.514942601425972</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.297911127491631</v>
+        <v>1.51096712221613</v>
       </c>
       <c r="C3">
-        <v>0.144129552980985</v>
+        <v>0.07145143369959328</v>
       </c>
       <c r="D3">
-        <v>0.0106518812553027</v>
+        <v>0.01780671062384087</v>
       </c>
       <c r="E3">
-        <v>0.02531767393539575</v>
+        <v>0.06968500031635294</v>
       </c>
       <c r="F3">
-        <v>1.895936970344309</v>
+        <v>3.570356853167894</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.141523600719601</v>
+        <v>2.221860651119997</v>
       </c>
       <c r="J3">
-        <v>0.05929784207118161</v>
+        <v>0.1483247693326497</v>
       </c>
       <c r="K3">
-        <v>1.305691657025989</v>
+        <v>1.314252251397278</v>
       </c>
       <c r="L3">
-        <v>0.2206047488584346</v>
+        <v>0.3783461650572946</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.880883137745727</v>
+        <v>3.534378708461375</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.197134536487852</v>
+        <v>1.490490830023731</v>
       </c>
       <c r="C4">
-        <v>0.1307430334873203</v>
+        <v>0.06797973033022231</v>
       </c>
       <c r="D4">
-        <v>0.009669048214846043</v>
+        <v>0.01759941358128359</v>
       </c>
       <c r="E4">
-        <v>0.02475219122975503</v>
+        <v>0.06974613591127365</v>
       </c>
       <c r="F4">
-        <v>1.857509360697179</v>
+        <v>3.571361696658954</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.129240913057082</v>
+        <v>2.224912492693733</v>
       </c>
       <c r="J4">
-        <v>0.05935586306807394</v>
+        <v>0.1486949130673629</v>
       </c>
       <c r="K4">
-        <v>1.199736012026619</v>
+        <v>1.291455622419903</v>
       </c>
       <c r="L4">
-        <v>0.2082040384943653</v>
+        <v>0.3765853697630135</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.909618598650638</v>
+        <v>3.547150963245755</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.156418312983874</v>
+        <v>1.482349752133899</v>
       </c>
       <c r="C5">
-        <v>0.1253317647186236</v>
+        <v>0.06657583476555828</v>
       </c>
       <c r="D5">
-        <v>0.009268875397093979</v>
+        <v>0.01751673526052855</v>
       </c>
       <c r="E5">
-        <v>0.0245274588877944</v>
+        <v>0.06977601291391622</v>
       </c>
       <c r="F5">
-        <v>1.842508668250588</v>
+        <v>3.572119581773961</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.124615244981797</v>
+        <v>2.226355728356623</v>
       </c>
       <c r="J5">
-        <v>0.05939288084559635</v>
+        <v>0.1488549700800075</v>
       </c>
       <c r="K5">
-        <v>1.156921577420405</v>
+        <v>1.282352599688238</v>
       </c>
       <c r="L5">
-        <v>0.2032175087057553</v>
+        <v>0.3759105295324048</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.921766270999285</v>
+        <v>3.552566584178663</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149677639154788</v>
+        <v>1.481010215716026</v>
       </c>
       <c r="C6">
-        <v>0.1244357047291089</v>
+        <v>0.06634337275380631</v>
       </c>
       <c r="D6">
-        <v>0.009202444014597688</v>
+        <v>0.01750311561298901</v>
       </c>
       <c r="E6">
-        <v>0.02449048101913753</v>
+        <v>0.0697812742007109</v>
       </c>
       <c r="F6">
-        <v>1.840056586503223</v>
+        <v>3.572266475691478</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.123869555950677</v>
+        <v>2.226607433454269</v>
       </c>
       <c r="J6">
-        <v>0.0593998249669081</v>
+        <v>0.1488821047902888</v>
       </c>
       <c r="K6">
-        <v>1.149833128713226</v>
+        <v>1.280852338585191</v>
       </c>
       <c r="L6">
-        <v>0.2023933983467217</v>
+        <v>0.3758010539817107</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.923809453178841</v>
+        <v>3.553478577166217</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196584046383464</v>
+        <v>1.490380213408883</v>
       </c>
       <c r="C7">
-        <v>0.130669885480728</v>
+        <v>0.06796075303866189</v>
       </c>
       <c r="D7">
-        <v>0.009663650129486001</v>
+        <v>0.0175982912544832</v>
       </c>
       <c r="E7">
-        <v>0.02474913757348318</v>
+        <v>0.06974651872499571</v>
       </c>
       <c r="F7">
-        <v>1.857304434866791</v>
+        <v>3.571370506880868</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.129177016637101</v>
+        <v>2.22493114845971</v>
       </c>
       <c r="J7">
-        <v>0.05935630862532904</v>
+        <v>0.1486970342978982</v>
       </c>
       <c r="K7">
-        <v>1.199157179988305</v>
+        <v>1.291332099246745</v>
       </c>
       <c r="L7">
-        <v>0.2081365240216684</v>
+        <v>0.3765760956451913</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.909780670746692</v>
+        <v>3.547223146601048</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.406746726792676</v>
+        <v>1.533510610707054</v>
       </c>
       <c r="C8">
-        <v>0.1585811833358406</v>
+        <v>0.07519331872082091</v>
       </c>
       <c r="D8">
-        <v>0.01170217447039335</v>
+        <v>0.01803401087269307</v>
       </c>
       <c r="E8">
-        <v>0.02594118994229611</v>
+        <v>0.06963668851181204</v>
       </c>
       <c r="F8">
-        <v>1.939296850225162</v>
+        <v>3.570475042491921</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.155980725732945</v>
+        <v>2.219286048031456</v>
       </c>
       <c r="J8">
-        <v>0.05928267777126806</v>
+        <v>0.1479612634907639</v>
       </c>
       <c r="K8">
-        <v>1.420106920711135</v>
+        <v>1.339216181493555</v>
       </c>
       <c r="L8">
-        <v>0.2340798676647609</v>
+        <v>0.3803708316214198</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.851752712522305</v>
+        <v>3.521470159716742</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.832761670199687</v>
+        <v>1.624476395604859</v>
       </c>
       <c r="C9">
-        <v>0.2151908909690121</v>
+        <v>0.08972391575396443</v>
       </c>
       <c r="D9">
-        <v>0.01572119587543241</v>
+        <v>0.01894395548656291</v>
       </c>
       <c r="E9">
-        <v>0.0284757928820536</v>
+        <v>0.06957686567080401</v>
       </c>
       <c r="F9">
-        <v>2.123795364908233</v>
+        <v>3.579703873641122</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.222032119610304</v>
+        <v>2.214509288776497</v>
       </c>
       <c r="J9">
-        <v>0.05958992421047782</v>
+        <v>0.1468081733530298</v>
       </c>
       <c r="K9">
-        <v>1.867982670702446</v>
+        <v>1.438999072898724</v>
       </c>
       <c r="L9">
-        <v>0.2874629305159573</v>
+        <v>0.3891545921647008</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.752821754082319</v>
+        <v>3.477620897697619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.156814452180754</v>
+        <v>1.695197219961699</v>
       </c>
       <c r="C10">
-        <v>0.2583809401373003</v>
+        <v>0.1006172201936408</v>
       </c>
       <c r="D10">
-        <v>0.01869787157584923</v>
+        <v>0.01964551899122924</v>
       </c>
       <c r="E10">
-        <v>0.03047371608317917</v>
+        <v>0.06962698538384515</v>
       </c>
       <c r="F10">
-        <v>2.276478949668615</v>
+        <v>3.593181707804874</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.280166227901361</v>
+        <v>2.214836170887693</v>
       </c>
       <c r="J10">
-        <v>0.06011804195495074</v>
+        <v>0.1461367586337623</v>
       </c>
       <c r="K10">
-        <v>2.208823058533994</v>
+        <v>1.51590036387887</v>
       </c>
       <c r="L10">
-        <v>0.3285795952046016</v>
+        <v>0.3964240867529298</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.690151967995632</v>
+        <v>3.449459894757894</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.30727105097634</v>
+        <v>1.728213758627703</v>
       </c>
       <c r="C11">
-        <v>0.2784887054969829</v>
+        <v>0.1056214530942441</v>
       </c>
       <c r="D11">
-        <v>0.02006001222447651</v>
+        <v>0.01997168734964916</v>
       </c>
       <c r="E11">
-        <v>0.03141592196568865</v>
+        <v>0.06967005740891175</v>
       </c>
       <c r="F11">
-        <v>2.350314719567692</v>
+        <v>3.600768040855058</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.30903769785462</v>
+        <v>2.215818099032816</v>
       </c>
       <c r="J11">
-        <v>0.06043056473970054</v>
+        <v>0.1458692977196669</v>
       </c>
       <c r="K11">
-        <v>2.367147742756742</v>
+        <v>1.551666185535794</v>
       </c>
       <c r="L11">
-        <v>0.3477860944323226</v>
+        <v>0.3999079873143216</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.664051754403545</v>
+        <v>3.437529257273908</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.364740460651262</v>
+        <v>1.740837575793478</v>
       </c>
       <c r="C12">
-        <v>0.2861795263987403</v>
+        <v>0.107523527283945</v>
       </c>
       <c r="D12">
-        <v>0.02057723360906039</v>
+        <v>0.02009619368562809</v>
       </c>
       <c r="E12">
-        <v>0.03177785059165572</v>
+        <v>0.06968926908410822</v>
       </c>
       <c r="F12">
-        <v>2.378964296035875</v>
+        <v>3.603850007860032</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.320350568754293</v>
+        <v>2.216309729254121</v>
       </c>
       <c r="J12">
-        <v>0.06055990829859326</v>
+        <v>0.1457734622181732</v>
       </c>
       <c r="K12">
-        <v>2.427636662778554</v>
+        <v>1.565322305470346</v>
       </c>
       <c r="L12">
-        <v>0.3551394922892683</v>
+        <v>0.4012526427625573</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.654536599695021</v>
+        <v>3.433138004589424</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.352340424185059</v>
+        <v>1.738113427806525</v>
       </c>
       <c r="C13">
-        <v>0.284519596677427</v>
+        <v>0.107113565732277</v>
       </c>
       <c r="D13">
-        <v>0.02046577374439806</v>
+        <v>0.02006933509576569</v>
       </c>
       <c r="E13">
-        <v>0.03169966861492313</v>
+        <v>0.06968500269331379</v>
       </c>
       <c r="F13">
-        <v>2.372762415659551</v>
+        <v>3.603176948491651</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.317896719750294</v>
+        <v>2.216198520272542</v>
       </c>
       <c r="J13">
-        <v>0.06053155250695497</v>
+        <v>0.1457938601075384</v>
       </c>
       <c r="K13">
-        <v>2.414584424737228</v>
+        <v>1.562376221060873</v>
       </c>
       <c r="L13">
-        <v>0.3535520979671389</v>
+        <v>0.4009619195747405</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.65656909818108</v>
+        <v>3.434078106512658</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.311988832152849</v>
+        <v>1.729249901385572</v>
       </c>
       <c r="C14">
-        <v>0.2791198396194545</v>
+        <v>0.105777795645281</v>
       </c>
       <c r="D14">
-        <v>0.02010253455886968</v>
+        <v>0.01998191074507361</v>
       </c>
       <c r="E14">
-        <v>0.03144559306147698</v>
+        <v>0.06967157989918427</v>
       </c>
       <c r="F14">
-        <v>2.352657554819018</v>
+        <v>3.601017404084331</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.309960613380753</v>
+        <v>2.215856144984599</v>
       </c>
       <c r="J14">
-        <v>0.06044098184181479</v>
+        <v>0.145861304204935</v>
       </c>
       <c r="K14">
-        <v>2.372113097183671</v>
+        <v>1.552787431737272</v>
       </c>
       <c r="L14">
-        <v>0.3483894043930462</v>
+        <v>0.4000181047162386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.663261418996967</v>
+        <v>3.437165448096636</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.287338534418893</v>
+        <v>1.723836504304757</v>
       </c>
       <c r="C15">
-        <v>0.2758226091106337</v>
+        <v>0.1049605216955172</v>
       </c>
       <c r="D15">
-        <v>0.01988023148737028</v>
+        <v>0.01992848969540262</v>
       </c>
       <c r="E15">
-        <v>0.0312906439134828</v>
+        <v>0.06966373546567795</v>
       </c>
       <c r="F15">
-        <v>2.340434420337473</v>
+        <v>3.599721861198461</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.305149959362709</v>
+        <v>2.215662030527753</v>
       </c>
       <c r="J15">
-        <v>0.06038695581153419</v>
+        <v>0.145903324504669</v>
       </c>
       <c r="K15">
-        <v>2.346169827106621</v>
+        <v>1.546928650060039</v>
       </c>
       <c r="L15">
-        <v>0.3452378170071739</v>
+        <v>0.3994432937436727</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.66740933052165</v>
+        <v>3.439073026349604</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.147047765932257</v>
+        <v>1.693056488155662</v>
       </c>
       <c r="C16">
-        <v>0.2570769679159923</v>
+        <v>0.1002911692215491</v>
       </c>
       <c r="D16">
-        <v>0.01860903510848999</v>
+        <v>0.01962434303790772</v>
       </c>
       <c r="E16">
-        <v>0.03041284011806233</v>
+        <v>0.06962457726601734</v>
       </c>
       <c r="F16">
-        <v>2.271746721651311</v>
+        <v>3.592715199444157</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.278330813467988</v>
+        <v>2.214788764315387</v>
       </c>
       <c r="J16">
-        <v>0.06009912274495477</v>
+        <v>0.1461550006884877</v>
       </c>
       <c r="K16">
-        <v>2.198547392685754</v>
+        <v>1.513578721114925</v>
       </c>
       <c r="L16">
-        <v>0.3273351876021167</v>
+        <v>0.3961999607406312</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.691907985243702</v>
+        <v>3.450257303944866</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.061802443164538</v>
+        <v>1.674390170281072</v>
       </c>
       <c r="C17">
-        <v>0.2457020247941557</v>
+        <v>0.09743921800924227</v>
       </c>
       <c r="D17">
-        <v>0.01783142602146626</v>
+        <v>0.01943954600876907</v>
       </c>
       <c r="E17">
-        <v>0.02988310890876633</v>
+        <v>0.06960573728453312</v>
       </c>
       <c r="F17">
-        <v>2.230771557150774</v>
+        <v>3.588789500354778</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.262520676334574</v>
+        <v>2.214466436963683</v>
       </c>
       <c r="J17">
-        <v>0.05994147233338865</v>
+        <v>0.1463191108162825</v>
       </c>
       <c r="K17">
-        <v>2.108868184897176</v>
+        <v>1.493320016686027</v>
       </c>
       <c r="L17">
-        <v>0.3164866855244952</v>
+        <v>0.3942555572567983</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.707569075435899</v>
+        <v>3.457343930555126</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.01305432954473</v>
+        <v>1.663733382212968</v>
       </c>
       <c r="C18">
-        <v>0.239202124057897</v>
+        <v>0.09580344208046654</v>
       </c>
       <c r="D18">
-        <v>0.01738490538441084</v>
+        <v>0.01933391771626347</v>
       </c>
       <c r="E18">
-        <v>0.02958153757075621</v>
+        <v>0.0695968099772486</v>
       </c>
       <c r="F18">
-        <v>2.207612028803808</v>
+        <v>3.586668515986716</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.253653429574008</v>
+        <v>2.214359471230587</v>
       </c>
       <c r="J18">
-        <v>0.0598575600500908</v>
+        <v>0.1464170772582563</v>
       </c>
       <c r="K18">
-        <v>2.057591146741174</v>
+        <v>1.48174146194674</v>
       </c>
       <c r="L18">
-        <v>0.3102936701270096</v>
+        <v>0.3931538493066853</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.716802187983149</v>
+        <v>3.461502789782728</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.996595959645163</v>
+        <v>1.660138857206562</v>
       </c>
       <c r="C19">
-        <v>0.2370084009881595</v>
+        <v>0.09525038312858669</v>
       </c>
       <c r="D19">
-        <v>0.01723384096819913</v>
+        <v>0.01929826800973089</v>
       </c>
       <c r="E19">
-        <v>0.02947995595778607</v>
+        <v>0.06959411563365592</v>
       </c>
       <c r="F19">
-        <v>2.199839001304269</v>
+        <v>3.585973914711545</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.250689104415805</v>
+        <v>2.214336725353974</v>
       </c>
       <c r="J19">
-        <v>0.0598302929751604</v>
+        <v>0.1464508613808739</v>
       </c>
       <c r="K19">
-        <v>2.040279994282258</v>
+        <v>1.477833829881035</v>
       </c>
       <c r="L19">
-        <v>0.3082046173816195</v>
+        <v>0.3927836937087505</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.719966412034751</v>
+        <v>3.462925129776224</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.070847293242082</v>
+        <v>1.676368997775512</v>
       </c>
       <c r="C20">
-        <v>0.2469084201025851</v>
+        <v>0.0977423375003923</v>
       </c>
       <c r="D20">
-        <v>0.01791412556072913</v>
+        <v>0.01945914956580808</v>
       </c>
       <c r="E20">
-        <v>0.02993917482332265</v>
+        <v>0.06960754536445357</v>
       </c>
       <c r="F20">
-        <v>2.235090759449477</v>
+        <v>3.589193221939254</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.26418005285791</v>
+        <v>2.214492632371318</v>
       </c>
       <c r="J20">
-        <v>0.05995755022630789</v>
+        <v>0.1463012711518097</v>
       </c>
       <c r="K20">
-        <v>2.118382775248364</v>
+        <v>1.495468962614126</v>
       </c>
       <c r="L20">
-        <v>0.3176366317828041</v>
+        <v>0.3944608184355047</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.705878457991901</v>
+        <v>3.456580974972226</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.323827163733938</v>
+        <v>1.731850048422928</v>
       </c>
       <c r="C21">
-        <v>0.280703717814248</v>
+        <v>0.1061699510729568</v>
       </c>
       <c r="D21">
-        <v>0.02020918632662116</v>
+        <v>0.02000756256430236</v>
       </c>
       <c r="E21">
-        <v>0.031520078958307</v>
+        <v>0.06967544387084956</v>
       </c>
       <c r="F21">
-        <v>2.358543620449097</v>
+        <v>3.601646037860405</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.312281069012997</v>
+        <v>2.215953457853118</v>
       </c>
       <c r="J21">
-        <v>0.06046728107438781</v>
+        <v>0.1458413465408945</v>
       </c>
       <c r="K21">
-        <v>2.38457290243224</v>
+        <v>1.555600843386884</v>
       </c>
       <c r="L21">
-        <v>0.3499035649044941</v>
+        <v>0.4002946378256524</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.661285536577921</v>
+        <v>3.436255183875957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.492078386571279</v>
+        <v>1.768816223717977</v>
       </c>
       <c r="C22">
-        <v>0.3032419837940949</v>
+        <v>0.1117191785282614</v>
       </c>
       <c r="D22">
-        <v>0.02171748961166031</v>
+        <v>0.02037176525658069</v>
       </c>
       <c r="E22">
-        <v>0.03258340671329485</v>
+        <v>0.06973672370039807</v>
       </c>
       <c r="F22">
-        <v>2.44327844507103</v>
+        <v>3.611003948694048</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.345948581501943</v>
+        <v>2.217606442728723</v>
       </c>
       <c r="J22">
-        <v>0.06086484476597676</v>
+        <v>0.1455724972204564</v>
       </c>
       <c r="K22">
-        <v>2.561694819305842</v>
+        <v>1.595555437930102</v>
       </c>
       <c r="L22">
-        <v>0.3714642932816759</v>
+        <v>0.4042552658726066</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.634300792142866</v>
+        <v>3.42370919028086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.401992609914714</v>
+        <v>1.74902219628342</v>
       </c>
       <c r="C23">
-        <v>0.2911679613106912</v>
+        <v>0.1087536528543751</v>
       </c>
       <c r="D23">
-        <v>0.02091162425912785</v>
+        <v>0.02017685968394645</v>
       </c>
       <c r="E23">
-        <v>0.03201301229326248</v>
+        <v>0.06970247533139329</v>
       </c>
       <c r="F23">
-        <v>2.397661932281025</v>
+        <v>3.605897913040664</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.32776446673671</v>
+        <v>2.216660330012644</v>
       </c>
       <c r="J23">
-        <v>0.06064654852553275</v>
+        <v>0.1457130876412158</v>
       </c>
       <c r="K23">
-        <v>2.466850474354914</v>
+        <v>1.574171064108924</v>
       </c>
       <c r="L23">
-        <v>0.3599108343717745</v>
+        <v>0.4021278952443197</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.648497621164353</v>
+        <v>3.430337658783827</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.066757309196475</v>
+        <v>1.675474137066828</v>
       </c>
       <c r="C24">
-        <v>0.2463628858718323</v>
+        <v>0.09760528519478839</v>
       </c>
       <c r="D24">
-        <v>0.01787673544457746</v>
+        <v>0.01945028488376366</v>
       </c>
       <c r="E24">
-        <v>0.02991381817237126</v>
+        <v>0.06960672199987883</v>
       </c>
       <c r="F24">
-        <v>2.23313681398848</v>
+        <v>3.589010275904229</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.263429158902042</v>
+        <v>2.214480545373888</v>
       </c>
       <c r="J24">
-        <v>0.05995026051514429</v>
+        <v>0.1463093251956664</v>
       </c>
       <c r="K24">
-        <v>2.114080359287811</v>
+        <v>1.4944972109449</v>
       </c>
       <c r="L24">
-        <v>0.3171166048399243</v>
+        <v>0.394367969529597</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.706642073429279</v>
+        <v>3.4569256434512</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.715771560051309</v>
+        <v>1.599184536872514</v>
       </c>
       <c r="C25">
-        <v>0.1996310008740352</v>
+        <v>0.08575519842273138</v>
       </c>
       <c r="D25">
-        <v>0.0146306031007768</v>
+        <v>0.01869193384589352</v>
       </c>
       <c r="E25">
-        <v>0.02776748414121144</v>
+        <v>0.06957647496794017</v>
       </c>
       <c r="F25">
-        <v>2.071081989382193</v>
+        <v>3.576031169168573</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.202583473830728</v>
+        <v>2.21512782102392</v>
       </c>
       <c r="J25">
-        <v>0.05945579339917373</v>
+        <v>0.1470891862452355</v>
       </c>
       <c r="K25">
-        <v>1.74497402549909</v>
+        <v>1.411374934514896</v>
       </c>
       <c r="L25">
-        <v>0.2727167558189194</v>
+        <v>0.3866348840373774</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.777900627780298</v>
+        <v>3.488771166570785</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.545629258784658</v>
+        <v>1.464540978907024</v>
       </c>
       <c r="C2">
-        <v>0.07717628820944356</v>
+        <v>0.1662551232979297</v>
       </c>
       <c r="D2">
-        <v>0.01815585547026544</v>
+        <v>0.0122556076064555</v>
       </c>
       <c r="E2">
-        <v>0.06961748551167801</v>
+        <v>0.02627696900189846</v>
       </c>
       <c r="F2">
-        <v>3.570975794395338</v>
+        <v>1.963025513618589</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.218182416072281</v>
+        <v>1.164108663757993</v>
       </c>
       <c r="J2">
-        <v>0.1477815485480001</v>
+        <v>0.05929236221206935</v>
       </c>
       <c r="K2">
-        <v>1.352588289994941</v>
+        <v>1.480861749650217</v>
       </c>
       <c r="L2">
-        <v>0.3814899393340312</v>
+        <v>0.2412663450114394</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.514942601425972</v>
+        <v>1.83700322010182</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.51096712221613</v>
+        <v>1.297911127491545</v>
       </c>
       <c r="C3">
-        <v>0.07145143369959328</v>
+        <v>0.1441295529807007</v>
       </c>
       <c r="D3">
-        <v>0.01780671062384087</v>
+        <v>0.0106518812551144</v>
       </c>
       <c r="E3">
-        <v>0.06968500031635294</v>
+        <v>0.0253176739353993</v>
       </c>
       <c r="F3">
-        <v>3.570356853167894</v>
+        <v>1.895936970344309</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.221860651119997</v>
+        <v>1.141523600719609</v>
       </c>
       <c r="J3">
-        <v>0.1483247693326497</v>
+        <v>0.05929784207131661</v>
       </c>
       <c r="K3">
-        <v>1.314252251397278</v>
+        <v>1.305691657025875</v>
       </c>
       <c r="L3">
-        <v>0.3783461650572946</v>
+        <v>0.2206047488584488</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.534378708461375</v>
+        <v>1.880883137745684</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.490490830023731</v>
+        <v>1.197134536487965</v>
       </c>
       <c r="C4">
-        <v>0.06797973033022231</v>
+        <v>0.1307430334871214</v>
       </c>
       <c r="D4">
-        <v>0.01759941358128359</v>
+        <v>0.00966904821488157</v>
       </c>
       <c r="E4">
-        <v>0.06974613591127365</v>
+        <v>0.0247521912297568</v>
       </c>
       <c r="F4">
-        <v>3.571361696658954</v>
+        <v>1.857509360697179</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.224912492693733</v>
+        <v>1.129240913057089</v>
       </c>
       <c r="J4">
-        <v>0.1486949130673629</v>
+        <v>0.05935586306802598</v>
       </c>
       <c r="K4">
-        <v>1.291455622419903</v>
+        <v>1.199736012026705</v>
       </c>
       <c r="L4">
-        <v>0.3765853697630135</v>
+        <v>0.2082040384942658</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.547150963245755</v>
+        <v>1.909618598650631</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.482349752133899</v>
+        <v>1.156418312983845</v>
       </c>
       <c r="C5">
-        <v>0.06657583476555828</v>
+        <v>0.1253317647185099</v>
       </c>
       <c r="D5">
-        <v>0.01751673526052855</v>
+        <v>0.009268875397204113</v>
       </c>
       <c r="E5">
-        <v>0.06977601291391622</v>
+        <v>0.02452745888779084</v>
       </c>
       <c r="F5">
-        <v>3.572119581773961</v>
+        <v>1.842508668250559</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.226355728356623</v>
+        <v>1.124615244981797</v>
       </c>
       <c r="J5">
-        <v>0.1488549700800075</v>
+        <v>0.05939288084558036</v>
       </c>
       <c r="K5">
-        <v>1.282352599688238</v>
+        <v>1.156921577420405</v>
       </c>
       <c r="L5">
-        <v>0.3759105295324048</v>
+        <v>0.2032175087057269</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.552566584178663</v>
+        <v>1.921766270999392</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481010215716026</v>
+        <v>1.149677639154959</v>
       </c>
       <c r="C6">
-        <v>0.06634337275380631</v>
+        <v>0.1244357047290947</v>
       </c>
       <c r="D6">
-        <v>0.01750311561298901</v>
+        <v>0.009202444014722033</v>
       </c>
       <c r="E6">
-        <v>0.0697812742007109</v>
+        <v>0.02449048101914819</v>
       </c>
       <c r="F6">
-        <v>3.572266475691478</v>
+        <v>1.840056586503266</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.226607433454269</v>
+        <v>1.123869555950712</v>
       </c>
       <c r="J6">
-        <v>0.1488821047902888</v>
+        <v>0.05939982496681395</v>
       </c>
       <c r="K6">
-        <v>1.280852338585191</v>
+        <v>1.14983312871334</v>
       </c>
       <c r="L6">
-        <v>0.3758010539817107</v>
+        <v>0.202393398346743</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.553478577166217</v>
+        <v>1.923809453178947</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.490380213408883</v>
+        <v>1.196584046383435</v>
       </c>
       <c r="C7">
-        <v>0.06796075303866189</v>
+        <v>0.1306698854805859</v>
       </c>
       <c r="D7">
-        <v>0.0175982912544832</v>
+        <v>0.00966365012947179</v>
       </c>
       <c r="E7">
-        <v>0.06974651872499571</v>
+        <v>0.02474913757349562</v>
       </c>
       <c r="F7">
-        <v>3.571370506880868</v>
+        <v>1.857304434866791</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.22493114845971</v>
+        <v>1.129177016637087</v>
       </c>
       <c r="J7">
-        <v>0.1486970342978982</v>
+        <v>0.05935630862539831</v>
       </c>
       <c r="K7">
-        <v>1.291332099246745</v>
+        <v>1.199157179988219</v>
       </c>
       <c r="L7">
-        <v>0.3765760956451913</v>
+        <v>0.2081365240216755</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.547223146601048</v>
+        <v>1.909780670746734</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.533510610707054</v>
+        <v>1.406746726792647</v>
       </c>
       <c r="C8">
-        <v>0.07519331872082091</v>
+        <v>0.1585811833358122</v>
       </c>
       <c r="D8">
-        <v>0.01803401087269307</v>
+        <v>0.01170217447038269</v>
       </c>
       <c r="E8">
-        <v>0.06963668851181204</v>
+        <v>0.02594118994230321</v>
       </c>
       <c r="F8">
-        <v>3.570475042491921</v>
+        <v>1.939296850225205</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.219286048031456</v>
+        <v>1.155980725732931</v>
       </c>
       <c r="J8">
-        <v>0.1479612634907639</v>
+        <v>0.059282677771332</v>
       </c>
       <c r="K8">
-        <v>1.339216181493555</v>
+        <v>1.420106920711248</v>
       </c>
       <c r="L8">
-        <v>0.3803708316214198</v>
+        <v>0.2340798676648888</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.521470159716742</v>
+        <v>1.851752712522355</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.624476395604859</v>
+        <v>1.832761670199829</v>
       </c>
       <c r="C9">
-        <v>0.08972391575396443</v>
+        <v>0.2151908909689126</v>
       </c>
       <c r="D9">
-        <v>0.01894395548656291</v>
+        <v>0.01572119587554255</v>
       </c>
       <c r="E9">
-        <v>0.06957686567080401</v>
+        <v>0.02847579288205182</v>
       </c>
       <c r="F9">
-        <v>3.579703873641122</v>
+        <v>2.123795364908204</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.214509288776497</v>
+        <v>1.22203211961029</v>
       </c>
       <c r="J9">
-        <v>0.1468081733530298</v>
+        <v>0.05958992421033926</v>
       </c>
       <c r="K9">
-        <v>1.438999072898724</v>
+        <v>1.867982670702389</v>
       </c>
       <c r="L9">
-        <v>0.3891545921647008</v>
+        <v>0.2874629305159289</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.477620897697619</v>
+        <v>1.752821754082348</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.695197219961699</v>
+        <v>2.156814452180697</v>
       </c>
       <c r="C10">
-        <v>0.1006172201936408</v>
+        <v>0.2583809401367319</v>
       </c>
       <c r="D10">
-        <v>0.01964551899122924</v>
+        <v>0.01869787157572489</v>
       </c>
       <c r="E10">
-        <v>0.06962698538384515</v>
+        <v>0.03047371608320226</v>
       </c>
       <c r="F10">
-        <v>3.593181707804874</v>
+        <v>2.276478949668601</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.214836170887693</v>
+        <v>1.280166227901319</v>
       </c>
       <c r="J10">
-        <v>0.1461367586337623</v>
+        <v>0.06011804195485837</v>
       </c>
       <c r="K10">
-        <v>1.51590036387887</v>
+        <v>2.208823058534023</v>
       </c>
       <c r="L10">
-        <v>0.3964240867529298</v>
+        <v>0.3285795952045589</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.449459894757894</v>
+        <v>1.690151967995575</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728213758627703</v>
+        <v>2.307271050976283</v>
       </c>
       <c r="C11">
-        <v>0.1056214530942441</v>
+        <v>0.2784887054972387</v>
       </c>
       <c r="D11">
-        <v>0.01997168734964916</v>
+        <v>0.02006001222435216</v>
       </c>
       <c r="E11">
-        <v>0.06967005740891175</v>
+        <v>0.03141592196570642</v>
       </c>
       <c r="F11">
-        <v>3.600768040855058</v>
+        <v>2.350314719567677</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.215818099032816</v>
+        <v>1.30903769785462</v>
       </c>
       <c r="J11">
-        <v>0.1458692977196669</v>
+        <v>0.0604305647397112</v>
       </c>
       <c r="K11">
-        <v>1.551666185535794</v>
+        <v>2.367147742756828</v>
       </c>
       <c r="L11">
-        <v>0.3999079873143216</v>
+        <v>0.347786094432351</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.437529257273908</v>
+        <v>1.664051754403559</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.740837575793478</v>
+        <v>2.364740460651149</v>
       </c>
       <c r="C12">
-        <v>0.107523527283945</v>
+        <v>0.2861795263985414</v>
       </c>
       <c r="D12">
-        <v>0.02009619368562809</v>
+        <v>0.02057723360906039</v>
       </c>
       <c r="E12">
-        <v>0.06968926908410822</v>
+        <v>0.0317778505916273</v>
       </c>
       <c r="F12">
-        <v>3.603850007860032</v>
+        <v>2.378964296035889</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.216309729254121</v>
+        <v>1.320350568754293</v>
       </c>
       <c r="J12">
-        <v>0.1457734622181732</v>
+        <v>0.06055990829854707</v>
       </c>
       <c r="K12">
-        <v>1.565322305470346</v>
+        <v>2.427636662778468</v>
       </c>
       <c r="L12">
-        <v>0.4012526427625573</v>
+        <v>0.3551394922891973</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.433138004589424</v>
+        <v>1.654536599695035</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.738113427806525</v>
+        <v>2.352340424185172</v>
       </c>
       <c r="C13">
-        <v>0.107113565732277</v>
+        <v>0.284519596677427</v>
       </c>
       <c r="D13">
-        <v>0.02006933509576569</v>
+        <v>0.0204657737446432</v>
       </c>
       <c r="E13">
-        <v>0.06968500269331379</v>
+        <v>0.03169966861487872</v>
       </c>
       <c r="F13">
-        <v>3.603176948491651</v>
+        <v>2.372762415659565</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.216198520272542</v>
+        <v>1.317896719750294</v>
       </c>
       <c r="J13">
-        <v>0.1457938601075384</v>
+        <v>0.06053155250689812</v>
       </c>
       <c r="K13">
-        <v>1.562376221060873</v>
+        <v>2.4145844247372</v>
       </c>
       <c r="L13">
-        <v>0.4009619195747405</v>
+        <v>0.35355209796721</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.434078106512658</v>
+        <v>1.656569098181038</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.729249901385572</v>
+        <v>2.311988832152792</v>
       </c>
       <c r="C14">
-        <v>0.105777795645281</v>
+        <v>0.2791198396195114</v>
       </c>
       <c r="D14">
-        <v>0.01998191074507361</v>
+        <v>0.02010253455852151</v>
       </c>
       <c r="E14">
-        <v>0.06967157989918427</v>
+        <v>0.0314455930615285</v>
       </c>
       <c r="F14">
-        <v>3.601017404084331</v>
+        <v>2.352657554819004</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.215856144984599</v>
+        <v>1.309960613380753</v>
       </c>
       <c r="J14">
-        <v>0.145861304204935</v>
+        <v>0.06044098184179703</v>
       </c>
       <c r="K14">
-        <v>1.552787431737272</v>
+        <v>2.372113097183529</v>
       </c>
       <c r="L14">
-        <v>0.4000181047162386</v>
+        <v>0.348389404392961</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.437165448096636</v>
+        <v>1.663261418996981</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.723836504304757</v>
+        <v>2.287338534418723</v>
       </c>
       <c r="C15">
-        <v>0.1049605216955172</v>
+        <v>0.275822609110719</v>
       </c>
       <c r="D15">
-        <v>0.01992848969540262</v>
+        <v>0.01988023148759055</v>
       </c>
       <c r="E15">
-        <v>0.06966373546567795</v>
+        <v>0.03129064391344727</v>
       </c>
       <c r="F15">
-        <v>3.599721861198461</v>
+        <v>2.340434420337459</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.215662030527753</v>
+        <v>1.305149959362694</v>
       </c>
       <c r="J15">
-        <v>0.145903324504669</v>
+        <v>0.0603869558114809</v>
       </c>
       <c r="K15">
-        <v>1.546928650060039</v>
+        <v>2.346169827106706</v>
       </c>
       <c r="L15">
-        <v>0.3994432937436727</v>
+        <v>0.3452378170071597</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.439073026349604</v>
+        <v>1.667409330521579</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.693056488155662</v>
+        <v>2.1470477659322</v>
       </c>
       <c r="C16">
-        <v>0.1002911692215491</v>
+        <v>0.2570769679159923</v>
       </c>
       <c r="D16">
-        <v>0.01962434303790772</v>
+        <v>0.01860903510848289</v>
       </c>
       <c r="E16">
-        <v>0.06962457726601734</v>
+        <v>0.03041284011805523</v>
       </c>
       <c r="F16">
-        <v>3.592715199444157</v>
+        <v>2.271746721651311</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.214788764315387</v>
+        <v>1.278330813467988</v>
       </c>
       <c r="J16">
-        <v>0.1461550006884877</v>
+        <v>0.06009912274511109</v>
       </c>
       <c r="K16">
-        <v>1.513578721114925</v>
+        <v>2.198547392685725</v>
       </c>
       <c r="L16">
-        <v>0.3961999607406312</v>
+        <v>0.3273351876022019</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.450257303944866</v>
+        <v>1.691907985243688</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.674390170281072</v>
+        <v>2.061802443164424</v>
       </c>
       <c r="C17">
-        <v>0.09743921800924227</v>
+        <v>0.2457020247939283</v>
       </c>
       <c r="D17">
-        <v>0.01943954600876907</v>
+        <v>0.01783142602134191</v>
       </c>
       <c r="E17">
-        <v>0.06960573728453312</v>
+        <v>0.02988310890884271</v>
       </c>
       <c r="F17">
-        <v>3.588789500354778</v>
+        <v>2.230771557150746</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.214466436963683</v>
+        <v>1.26252067633456</v>
       </c>
       <c r="J17">
-        <v>0.1463191108162825</v>
+        <v>0.05994147233337088</v>
       </c>
       <c r="K17">
-        <v>1.493320016686027</v>
+        <v>2.108868184897233</v>
       </c>
       <c r="L17">
-        <v>0.3942555572567983</v>
+        <v>0.3164866855244384</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.457343930555126</v>
+        <v>1.70756907543587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.663733382212968</v>
+        <v>2.013054329544559</v>
       </c>
       <c r="C18">
-        <v>0.09580344208046654</v>
+        <v>0.2392021240577549</v>
       </c>
       <c r="D18">
-        <v>0.01933391771626347</v>
+        <v>0.01738490538431492</v>
       </c>
       <c r="E18">
-        <v>0.0695968099772486</v>
+        <v>0.02958153757075799</v>
       </c>
       <c r="F18">
-        <v>3.586668515986716</v>
+        <v>2.207612028803837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.214359471230587</v>
+        <v>1.25365342957403</v>
       </c>
       <c r="J18">
-        <v>0.1464170772582563</v>
+        <v>0.05985756005004461</v>
       </c>
       <c r="K18">
-        <v>1.48174146194674</v>
+        <v>2.057591146741373</v>
       </c>
       <c r="L18">
-        <v>0.3931538493066853</v>
+        <v>0.3102936701270238</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.461502789782728</v>
+        <v>1.716802187983163</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.660138857206562</v>
+        <v>1.996595959645333</v>
       </c>
       <c r="C19">
-        <v>0.09525038312858669</v>
+        <v>0.237008400988131</v>
       </c>
       <c r="D19">
-        <v>0.01929826800973089</v>
+        <v>0.01723384096805347</v>
       </c>
       <c r="E19">
-        <v>0.06959411563365592</v>
+        <v>0.02947995595776653</v>
       </c>
       <c r="F19">
-        <v>3.585973914711545</v>
+        <v>2.199839001304284</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.214336725353974</v>
+        <v>1.250689104415798</v>
       </c>
       <c r="J19">
-        <v>0.1464508613808739</v>
+        <v>0.05983029297513554</v>
       </c>
       <c r="K19">
-        <v>1.477833829881035</v>
+        <v>2.040279994282287</v>
       </c>
       <c r="L19">
-        <v>0.3927836937087505</v>
+        <v>0.3082046173814774</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.462925129776224</v>
+        <v>1.719966412034751</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.676368997775512</v>
+        <v>2.070847293242025</v>
       </c>
       <c r="C20">
-        <v>0.0977423375003923</v>
+        <v>0.2469084201026135</v>
       </c>
       <c r="D20">
-        <v>0.01945914956580808</v>
+        <v>0.01791412556070426</v>
       </c>
       <c r="E20">
-        <v>0.06960754536445357</v>
+        <v>0.02993917482328179</v>
       </c>
       <c r="F20">
-        <v>3.589193221939254</v>
+        <v>2.235090759449477</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.214492632371318</v>
+        <v>1.264180052857931</v>
       </c>
       <c r="J20">
-        <v>0.1463012711518097</v>
+        <v>0.05995755022630078</v>
       </c>
       <c r="K20">
-        <v>1.495468962614126</v>
+        <v>2.118382775248335</v>
       </c>
       <c r="L20">
-        <v>0.3944608184355047</v>
+        <v>0.3176366317828609</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.456580974972226</v>
+        <v>1.705878457991929</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.731850048422928</v>
+        <v>2.323827163733824</v>
       </c>
       <c r="C21">
-        <v>0.1061699510729568</v>
+        <v>0.280703717814248</v>
       </c>
       <c r="D21">
-        <v>0.02000756256430236</v>
+        <v>0.02020918632650748</v>
       </c>
       <c r="E21">
-        <v>0.06967544387084956</v>
+        <v>0.03152007895827502</v>
       </c>
       <c r="F21">
-        <v>3.601646037860405</v>
+        <v>2.358543620449169</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.215953457853118</v>
+        <v>1.312281069013039</v>
       </c>
       <c r="J21">
-        <v>0.1458413465408945</v>
+        <v>0.0604672810743665</v>
       </c>
       <c r="K21">
-        <v>1.555600843386884</v>
+        <v>2.384572902432154</v>
       </c>
       <c r="L21">
-        <v>0.4002946378256524</v>
+        <v>0.3499035649043662</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.436255183875957</v>
+        <v>1.661285536577921</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768816223717977</v>
+        <v>2.492078386571166</v>
       </c>
       <c r="C22">
-        <v>0.1117191785282614</v>
+        <v>0.3032419837939813</v>
       </c>
       <c r="D22">
-        <v>0.02037176525658069</v>
+        <v>0.02171748961166031</v>
       </c>
       <c r="E22">
-        <v>0.06973672370039807</v>
+        <v>0.0325834067132913</v>
       </c>
       <c r="F22">
-        <v>3.611003948694048</v>
+        <v>2.44327844507103</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.217606442728723</v>
+        <v>1.345948581501943</v>
       </c>
       <c r="J22">
-        <v>0.1455724972204564</v>
+        <v>0.06086484476590925</v>
       </c>
       <c r="K22">
-        <v>1.595555437930102</v>
+        <v>2.56169481930587</v>
       </c>
       <c r="L22">
-        <v>0.4042552658726066</v>
+        <v>0.3714642932817043</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.42370919028086</v>
+        <v>1.634300792142909</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.74902219628342</v>
+        <v>2.401992609914544</v>
       </c>
       <c r="C23">
-        <v>0.1087536528543751</v>
+        <v>0.2911679613107481</v>
       </c>
       <c r="D23">
-        <v>0.02017685968394645</v>
+        <v>0.02091162425935877</v>
       </c>
       <c r="E23">
-        <v>0.06970247533139329</v>
+        <v>0.0320130122932607</v>
       </c>
       <c r="F23">
-        <v>3.605897913040664</v>
+        <v>2.397661932281039</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.216660330012644</v>
+        <v>1.327764466736724</v>
       </c>
       <c r="J23">
-        <v>0.1457130876412158</v>
+        <v>0.0606465485255292</v>
       </c>
       <c r="K23">
-        <v>1.574171064108924</v>
+        <v>2.466850474354857</v>
       </c>
       <c r="L23">
-        <v>0.4021278952443197</v>
+        <v>0.359910834371874</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.430337658783827</v>
+        <v>1.648497621164353</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.675474137066828</v>
+        <v>2.066757309196475</v>
       </c>
       <c r="C24">
-        <v>0.09760528519478839</v>
+        <v>0.2463628858714628</v>
       </c>
       <c r="D24">
-        <v>0.01945028488376366</v>
+        <v>0.01787673544424351</v>
       </c>
       <c r="E24">
-        <v>0.06960672199987883</v>
+        <v>0.02991381817234817</v>
       </c>
       <c r="F24">
-        <v>3.589010275904229</v>
+        <v>2.233136813988494</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.214480545373888</v>
+        <v>1.263429158902085</v>
       </c>
       <c r="J24">
-        <v>0.1463093251956664</v>
+        <v>0.059950260515091</v>
       </c>
       <c r="K24">
-        <v>1.4944972109449</v>
+        <v>2.114080359287811</v>
       </c>
       <c r="L24">
-        <v>0.394367969529597</v>
+        <v>0.3171166048398533</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.4569256434512</v>
+        <v>1.706642073429364</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.599184536872514</v>
+        <v>1.71577156005128</v>
       </c>
       <c r="C25">
-        <v>0.08575519842273138</v>
+        <v>0.1996310008739215</v>
       </c>
       <c r="D25">
-        <v>0.01869193384589352</v>
+        <v>0.01463060310053521</v>
       </c>
       <c r="E25">
-        <v>0.06957647496794017</v>
+        <v>0.02776748414122387</v>
       </c>
       <c r="F25">
-        <v>3.576031169168573</v>
+        <v>2.071081989382208</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.21512782102392</v>
+        <v>1.202583473830757</v>
       </c>
       <c r="J25">
-        <v>0.1470891862452355</v>
+        <v>0.05945579339915952</v>
       </c>
       <c r="K25">
-        <v>1.411374934514896</v>
+        <v>1.744974025499118</v>
       </c>
       <c r="L25">
-        <v>0.3866348840373774</v>
+        <v>0.2727167558189194</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.488771166570785</v>
+        <v>1.777900627780355</v>
       </c>
       <c r="O25">
         <v>0</v>
